--- a/data/prediccion_fuga.xlsx
+++ b/data/prediccion_fuga.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CARLOS\Documents\IDI-ASQ\Proyecto - Potencial fuga de miembros\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CARLOS\Documents\GitHub\PrediccionFugaMiembros\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CC69C0-9B20-415E-8552-F642CCADC256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E079FD-5477-4CC7-84CD-ED9F3BA1F390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Directores" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -27,20 +38,66 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={18E1BE90-72D2-4760-876D-F27967C9150C}</author>
+    <author>tc={33D0D193-A68E-46AE-82A1-2606F1B2C39F}</author>
+    <author>tc={1E06C303-8BE9-439C-B63F-64C82A7D8665}</author>
+    <author>tc={4341DAAC-8221-42BD-B27D-61E9222F516E}</author>
     <author>tc={1FB63A57-1952-497C-AA24-4E51CC31101D}</author>
     <author>tc={2310A520-08A8-497F-8E72-835CECFC9577}</author>
     <author>tc={49DF3B55-6A92-492D-871B-2D9F03E52113}</author>
+    <author>tc={7E21170B-50C3-4F96-9A73-79829EFE057E}</author>
     <author>tc={1C82B74E-E0D5-41EA-B7B3-906960EFA15F}</author>
+    <author>tc={11018332-1E29-4C3A-B0F2-961A757B29D1}</author>
     <author>tc={853D9D7C-CF69-4DDF-A354-7B47CE9611EA}</author>
     <author>tc={3015D22D-E187-4C3A-BB11-2A4211776463}</author>
     <author>tc={7199B17A-D195-4CA2-AA8B-4FDA2DC13DC5}</author>
+    <author>tc={1DA5F24D-3C0F-4928-B585-E528CC5042BC}</author>
     <author>tc={C7760A15-6451-430C-8AD5-3B1DD6373286}</author>
     <author>tc={22FA271A-2743-44D7-8585-C6916062BB0C}</author>
     <author>tc={A8BC0175-CAE5-4504-B5F7-1AD36EF97BA1}</author>
     <author>tc={6CE796B9-BF34-488E-938B-D13BB7508431}</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{1FB63A57-1952-497C-AA24-4E51CC31101D}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{18E1BE90-72D2-4760-876D-F27967C9150C}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    Opciones a ingresar:
+IDI
+DTH
+MKT
+MCCO</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="1" shapeId="0" xr:uid="{33D0D193-A68E-46AE-82A1-2606F1B2C39F}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    Evitar poner "ingeniería". Por ejemplo,
+* Ingeniería Industrial --&gt; Industrial
+* Ingeniería Química --&gt; Química</t>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="2" shapeId="0" xr:uid="{1E06C303-8BE9-439C-B63F-64C82A7D8665}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    Se puede ingresar de 1 - 10, sin embaro, si es egresado se debe poner 0</t>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="3" shapeId="0" xr:uid="{4341DAAC-8221-42BD-B27D-61E9222F516E}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    M
+F</t>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="4" shapeId="0" xr:uid="{1FB63A57-1952-497C-AA24-4E51CC31101D}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -50,7 +107,7 @@
 Determinar la escala y las mediciones</t>
       </text>
     </comment>
-    <comment ref="G1" authorId="1" shapeId="0" xr:uid="{2310A520-08A8-497F-8E72-835CECFC9577}">
+    <comment ref="J1" authorId="5" shapeId="0" xr:uid="{2310A520-08A8-497F-8E72-835CECFC9577}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -63,24 +120,41 @@
 4 Ausente</t>
       </text>
     </comment>
-    <comment ref="H1" authorId="2" shapeId="0" xr:uid="{49DF3B55-6A92-492D-871B-2D9F03E52113}">
-      <text>
-        <t>[Comentario encadenado]
-Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
-Comentario:
-    Qué tan comodo se siente en IDI
+    <comment ref="K1" authorId="6" shapeId="0" xr:uid="{49DF3B55-6A92-492D-871B-2D9F03E52113}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    Qué tan comodo se siente en el área que estuvo
 1-4</t>
       </text>
     </comment>
-    <comment ref="I1" authorId="3" shapeId="0" xr:uid="{1C82B74E-E0D5-41EA-B7B3-906960EFA15F}">
-      <text>
-        <t>[Comentario encadenado]
-Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
-Comentario:
-    De una escapa de 1 al 5, qué tan biem hace el trabajo que se le designa?</t>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="4" shapeId="0" xr:uid="{853D9D7C-CF69-4DDF-A354-7B47CE9611EA}">
+    <comment ref="L1" authorId="7" shapeId="0" xr:uid="{7E21170B-50C3-4F96-9A73-79829EFE057E}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    Cantidad de organizaciones en las que participa en ese momento de forma activa</t>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="8" shapeId="0" xr:uid="{1C82B74E-E0D5-41EA-B7B3-906960EFA15F}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    De una escapa de 1 al 5, qué tan biem hace el trabajo que se le designa? evaluado por el director</t>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="9" shapeId="0" xr:uid="{11018332-1E29-4C3A-B0F2-961A757B29D1}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    el nivel de trabajo que el miembro percibe que realiza. es decir, qué tan bien hace los entregables
+Escala de  1- 5</t>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="10" shapeId="0" xr:uid="{853D9D7C-CF69-4DDF-A354-7B47CE9611EA}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -90,23 +164,31 @@
 lider proyecto</t>
       </text>
     </comment>
-    <comment ref="K1" authorId="5" shapeId="0" xr:uid="{3015D22D-E187-4C3A-BB11-2A4211776463}">
-      <text>
-        <t>[Comentario encadenado]
-Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
-Comentario:
-    Realiza prácticas pre profesionales?</t>
-      </text>
-    </comment>
-    <comment ref="L1" authorId="6" shapeId="0" xr:uid="{7199B17A-D195-4CA2-AA8B-4FDA2DC13DC5}">
-      <text>
-        <t>[Comentario encadenado]
-Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
-Comentario:
-    Preguntar al finalizar la semanas, cuántas horas le dedicó a las actividades de IDI</t>
-      </text>
-    </comment>
-    <comment ref="M1" authorId="7" shapeId="0" xr:uid="{C7760A15-6451-430C-8AD5-3B1DD6373286}">
+    <comment ref="P1" authorId="11" shapeId="0" xr:uid="{3015D22D-E187-4C3A-BB11-2A4211776463}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    Desarrolla prácticas pre?</t>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="12" shapeId="0" xr:uid="{7199B17A-D195-4CA2-AA8B-4FDA2DC13DC5}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    Preguntar al finalizar la semanas, cuántas horas le dedicó a las actividades de IDI (por semana)</t>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="13" shapeId="0" xr:uid="{1DA5F24D-3C0F-4928-B585-E528CC5042BC}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    Cantidad de proyectos en los que ha participado en un mismo periodo</t>
+      </text>
+    </comment>
+    <comment ref="S1" authorId="14" shapeId="0" xr:uid="{C7760A15-6451-430C-8AD5-3B1DD6373286}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -114,7 +196,7 @@
     Fecha de inicio en ASQ - [área]</t>
       </text>
     </comment>
-    <comment ref="N1" authorId="8" shapeId="0" xr:uid="{22FA271A-2743-44D7-8585-C6916062BB0C}">
+    <comment ref="T1" authorId="15" shapeId="0" xr:uid="{22FA271A-2743-44D7-8585-C6916062BB0C}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -122,7 +204,7 @@
     Fecha Fin en ASQ [área]</t>
       </text>
     </comment>
-    <comment ref="O1" authorId="9" shapeId="0" xr:uid="{A8BC0175-CAE5-4504-B5F7-1AD36EF97BA1}">
+    <comment ref="U1" authorId="16" shapeId="0" xr:uid="{A8BC0175-CAE5-4504-B5F7-1AD36EF97BA1}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -130,10 +212,12 @@
     Todavía falta identificar motivo
 1. Explorar
 2. Realiza prácticas
-3. No se afín</t>
-      </text>
-    </comment>
-    <comment ref="P1" authorId="10" shapeId="0" xr:uid="{6CE796B9-BF34-488E-938B-D13BB7508431}">
+3. No es afín
+Respuesta:
+    4. Familiares</t>
+      </text>
+    </comment>
+    <comment ref="V1" authorId="17" shapeId="0" xr:uid="{6CE796B9-BF34-488E-938B-D13BB7508431}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -146,7 +230,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>Qpoints</t>
   </si>
@@ -169,12 +253,6 @@
     <t>Genero</t>
   </si>
   <si>
-    <t>Masculino</t>
-  </si>
-  <si>
-    <t>Sobresaliente</t>
-  </si>
-  <si>
     <t>Nivel_trabajo</t>
   </si>
   <si>
@@ -184,9 +262,6 @@
     <t>lider proyecto</t>
   </si>
   <si>
-    <t>si</t>
-  </si>
-  <si>
     <t>Horas_trabajo</t>
   </si>
   <si>
@@ -217,34 +292,122 @@
     <t>Fin_ASQ</t>
   </si>
   <si>
-    <t>motivo</t>
-  </si>
-  <si>
-    <t>Peter parker xd</t>
-  </si>
-  <si>
-    <t>Sistemas</t>
-  </si>
-  <si>
-    <t>Activo</t>
-  </si>
-  <si>
-    <t>equipo proyecto</t>
-  </si>
-  <si>
-    <t>Realiza prácticas</t>
-  </si>
-  <si>
     <t>Propabilidad</t>
+  </si>
+  <si>
+    <t>20182562D</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Ciclo</t>
+  </si>
+  <si>
+    <t>nro_proyectos</t>
+  </si>
+  <si>
+    <t>autoevaluacion</t>
+  </si>
+  <si>
+    <t>Codigo_univ</t>
+  </si>
+  <si>
+    <t>nro_org</t>
+  </si>
+  <si>
+    <t>Motivo</t>
+  </si>
+  <si>
+    <t>01/05/02022</t>
+  </si>
+  <si>
+    <t>Carlos Prado</t>
+  </si>
+  <si>
+    <t>Bruno Luya</t>
+  </si>
+  <si>
+    <t>Jonathan Morgan</t>
+  </si>
+  <si>
+    <t>Peter Gordillo</t>
+  </si>
+  <si>
+    <t>Jhon Pomacanchari</t>
+  </si>
+  <si>
+    <t>Jesus Moreano</t>
+  </si>
+  <si>
+    <t>Juan Taco</t>
+  </si>
+  <si>
+    <t>Andres Espinoza</t>
+  </si>
+  <si>
+    <t>Equipo</t>
+  </si>
+  <si>
+    <t>Celular</t>
+  </si>
+  <si>
+    <t>Director</t>
+  </si>
+  <si>
+    <t>Celulcar</t>
+  </si>
+  <si>
+    <t>Equipo proyecto</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>Practicas pre</t>
+  </si>
+  <si>
+    <t>Cantidad Miembros</t>
+  </si>
+  <si>
+    <t>Dirección</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Exo"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Exo"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Exo"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -277,12 +440,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
@@ -304,6 +470,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Carlos Enrique Rondan Poma" id="{66EA68B5-9643-423C-89A9-43B48DFBD117}" userId="Carlos Enrique Rondan Poma" providerId="None"/>
   <person displayName="Carlos Enrique Rondan Poma" id="{00F10F76-6E5E-44BE-A4C6-603A3CF75088}" userId="S::carlos.rondan.p@uni.pe::6c335097-f96e-42ee-afd1-267375b81bbc" providerId="AD"/>
 </personList>
 </file>
@@ -571,12 +738,31 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="F1" dT="2022-03-06T08:45:47.22" personId="{00F10F76-6E5E-44BE-A4C6-603A3CF75088}" id="{1FB63A57-1952-497C-AA24-4E51CC31101D}">
+  <threadedComment ref="E1" dT="2022-04-01T21:30:31.19" personId="{00F10F76-6E5E-44BE-A4C6-603A3CF75088}" id="{18E1BE90-72D2-4760-876D-F27967C9150C}">
+    <text>Opciones a ingresar:
+IDI
+DTH
+MKT
+MCCO</text>
+  </threadedComment>
+  <threadedComment ref="F1" dT="2022-04-01T21:31:16.28" personId="{00F10F76-6E5E-44BE-A4C6-603A3CF75088}" id="{33D0D193-A68E-46AE-82A1-2606F1B2C39F}">
+    <text>Evitar poner "ingeniería". Por ejemplo,
+* Ingeniería Industrial --&gt; Industrial
+* Ingeniería Química --&gt; Química</text>
+  </threadedComment>
+  <threadedComment ref="G1" dT="2022-04-01T21:33:03.47" personId="{00F10F76-6E5E-44BE-A4C6-603A3CF75088}" id="{1E06C303-8BE9-439C-B63F-64C82A7D8665}">
+    <text>Se puede ingresar de 1 - 10, sin embaro, si es egresado se debe poner 0</text>
+  </threadedComment>
+  <threadedComment ref="H1" dT="2022-04-01T21:31:31.32" personId="{00F10F76-6E5E-44BE-A4C6-603A3CF75088}" id="{4341DAAC-8221-42BD-B27D-61E9222F516E}">
+    <text>M
+F</text>
+  </threadedComment>
+  <threadedComment ref="I1" dT="2022-03-06T08:45:47.22" personId="{00F10F76-6E5E-44BE-A4C6-603A3CF75088}" id="{1FB63A57-1952-497C-AA24-4E51CC31101D}">
     <text>Se define por el nivel de compromiso, responsabilidad
 Valorado por los directores
 Determinar la escala y las mediciones</text>
   </threadedComment>
-  <threadedComment ref="G1" dT="2022-03-06T08:46:02.66" personId="{00F10F76-6E5E-44BE-A4C6-603A3CF75088}" id="{2310A520-08A8-497F-8E72-835CECFC9577}">
+  <threadedComment ref="J1" dT="2022-03-06T08:46:02.66" personId="{00F10F76-6E5E-44BE-A4C6-603A3CF75088}" id="{2310A520-08A8-497F-8E72-835CECFC9577}">
     <text>Nivel identidad con el proyecto
 1-4
 1 Sobresaliente
@@ -584,37 +770,50 @@
 3 Moderado
 4 Ausente</text>
   </threadedComment>
-  <threadedComment ref="H1" dT="2022-03-06T16:39:27.93" personId="{00F10F76-6E5E-44BE-A4C6-603A3CF75088}" id="{49DF3B55-6A92-492D-871B-2D9F03E52113}">
-    <text>Qué tan comodo se siente en IDI
+  <threadedComment ref="K1" dT="2022-03-06T16:39:27.93" personId="{00F10F76-6E5E-44BE-A4C6-603A3CF75088}" id="{49DF3B55-6A92-492D-871B-2D9F03E52113}">
+    <text>Qué tan comodo se siente en el área que estuvo
 1-4</text>
   </threadedComment>
-  <threadedComment ref="I1" dT="2022-03-06T16:48:20.48" personId="{00F10F76-6E5E-44BE-A4C6-603A3CF75088}" id="{1C82B74E-E0D5-41EA-B7B3-906960EFA15F}">
-    <text>De una escapa de 1 al 5, qué tan biem hace el trabajo que se le designa?</text>
-  </threadedComment>
-  <threadedComment ref="J1" dT="2022-03-06T16:49:41.82" personId="{00F10F76-6E5E-44BE-A4C6-603A3CF75088}" id="{853D9D7C-CF69-4DDF-A354-7B47CE9611EA}">
+  <threadedComment ref="L1" dT="2022-04-01T21:33:54.13" personId="{00F10F76-6E5E-44BE-A4C6-603A3CF75088}" id="{7E21170B-50C3-4F96-9A73-79829EFE057E}">
+    <text>Cantidad de organizaciones en las que participa en ese momento de forma activa</text>
+  </threadedComment>
+  <threadedComment ref="M1" dT="2022-03-06T16:48:20.48" personId="{00F10F76-6E5E-44BE-A4C6-603A3CF75088}" id="{1C82B74E-E0D5-41EA-B7B3-906960EFA15F}">
+    <text>De una escapa de 1 al 5, qué tan biem hace el trabajo que se le designa? evaluado por el director</text>
+  </threadedComment>
+  <threadedComment ref="N1" dT="2022-04-01T21:35:57.34" personId="{00F10F76-6E5E-44BE-A4C6-603A3CF75088}" id="{11018332-1E29-4C3A-B0F2-961A757B29D1}">
+    <text>el nivel de trabajo que el miembro percibe que realiza. es decir, qué tan bien hace los entregables
+Escala de  1- 5</text>
+  </threadedComment>
+  <threadedComment ref="O1" dT="2022-03-06T16:49:41.82" personId="{00F10F76-6E5E-44BE-A4C6-603A3CF75088}" id="{853D9D7C-CF69-4DDF-A354-7B47CE9611EA}">
     <text>miembro 
 equipo proyecto
 lider proyecto</text>
   </threadedComment>
-  <threadedComment ref="K1" dT="2022-03-06T16:50:39.19" personId="{00F10F76-6E5E-44BE-A4C6-603A3CF75088}" id="{3015D22D-E187-4C3A-BB11-2A4211776463}">
-    <text>Realiza prácticas pre profesionales?</text>
-  </threadedComment>
-  <threadedComment ref="L1" dT="2022-03-06T16:52:38.78" personId="{00F10F76-6E5E-44BE-A4C6-603A3CF75088}" id="{7199B17A-D195-4CA2-AA8B-4FDA2DC13DC5}">
-    <text>Preguntar al finalizar la semanas, cuántas horas le dedicó a las actividades de IDI</text>
-  </threadedComment>
-  <threadedComment ref="M1" dT="2022-03-06T16:53:17.55" personId="{00F10F76-6E5E-44BE-A4C6-603A3CF75088}" id="{C7760A15-6451-430C-8AD5-3B1DD6373286}">
+  <threadedComment ref="P1" dT="2022-03-06T16:50:39.19" personId="{00F10F76-6E5E-44BE-A4C6-603A3CF75088}" id="{3015D22D-E187-4C3A-BB11-2A4211776463}">
+    <text>Desarrolla prácticas pre?</text>
+  </threadedComment>
+  <threadedComment ref="Q1" dT="2022-03-06T16:52:38.78" personId="{00F10F76-6E5E-44BE-A4C6-603A3CF75088}" id="{7199B17A-D195-4CA2-AA8B-4FDA2DC13DC5}">
+    <text>Preguntar al finalizar la semanas, cuántas horas le dedicó a las actividades de IDI (por semana)</text>
+  </threadedComment>
+  <threadedComment ref="R1" dT="2022-04-01T21:35:12.92" personId="{00F10F76-6E5E-44BE-A4C6-603A3CF75088}" id="{1DA5F24D-3C0F-4928-B585-E528CC5042BC}">
+    <text>Cantidad de proyectos en los que ha participado en un mismo periodo</text>
+  </threadedComment>
+  <threadedComment ref="S1" dT="2022-03-06T16:53:17.55" personId="{00F10F76-6E5E-44BE-A4C6-603A3CF75088}" id="{C7760A15-6451-430C-8AD5-3B1DD6373286}">
     <text>Fecha de inicio en ASQ - [área]</text>
   </threadedComment>
-  <threadedComment ref="N1" dT="2022-03-06T16:55:03.64" personId="{00F10F76-6E5E-44BE-A4C6-603A3CF75088}" id="{22FA271A-2743-44D7-8585-C6916062BB0C}">
+  <threadedComment ref="T1" dT="2022-03-06T16:55:03.64" personId="{00F10F76-6E5E-44BE-A4C6-603A3CF75088}" id="{22FA271A-2743-44D7-8585-C6916062BB0C}">
     <text>Fecha Fin en ASQ [área]</text>
   </threadedComment>
-  <threadedComment ref="O1" dT="2022-03-09T00:50:43.35" personId="{00F10F76-6E5E-44BE-A4C6-603A3CF75088}" id="{A8BC0175-CAE5-4504-B5F7-1AD36EF97BA1}">
+  <threadedComment ref="U1" dT="2022-03-09T00:50:43.35" personId="{00F10F76-6E5E-44BE-A4C6-603A3CF75088}" id="{A8BC0175-CAE5-4504-B5F7-1AD36EF97BA1}">
     <text>Todavía falta identificar motivo
 1. Explorar
 2. Realiza prácticas
-3. No se afín</text>
-  </threadedComment>
-  <threadedComment ref="P1" dT="2022-03-06T16:56:38.03" personId="{00F10F76-6E5E-44BE-A4C6-603A3CF75088}" id="{6CE796B9-BF34-488E-938B-D13BB7508431}">
+3. No es afín</text>
+  </threadedComment>
+  <threadedComment ref="U1" dT="2022-04-06T04:16:37.14" personId="{66EA68B5-9643-423C-89A9-43B48DFBD117}" id="{BE64E63C-202C-4AE4-9532-9DDBD1559F2B}" parentId="{A8BC0175-CAE5-4504-B5F7-1AD36EF97BA1}">
+    <text>4. Familiares</text>
+  </threadedComment>
+  <threadedComment ref="V1" dT="2022-03-06T16:56:38.03" personId="{00F10F76-6E5E-44BE-A4C6-603A3CF75088}" id="{6CE796B9-BF34-488E-938B-D13BB7508431}">
     <text>Hasta el momento, el miembro fugó o no?</text>
   </threadedComment>
 </ThreadedComments>
@@ -622,189 +821,379 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
-    <col min="6" max="6" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.5546875" customWidth="1"/>
-    <col min="17" max="17" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="26" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:23" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c r="U1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3">
+        <v>988811993</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="8">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1">
+        <v>4</v>
+      </c>
+      <c r="K2" s="9">
+        <v>4</v>
+      </c>
+      <c r="L2" s="9">
+        <v>3</v>
+      </c>
+      <c r="M2">
+        <v>3</v>
+      </c>
+      <c r="N2" s="8"/>
+      <c r="O2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>8</v>
+      </c>
+      <c r="R2">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="S2" s="2">
+        <v>44621</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>988811993</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="8">
+        <v>8</v>
+      </c>
+      <c r="J3" s="1">
+        <v>4</v>
+      </c>
+      <c r="K3" s="9">
+        <v>4</v>
+      </c>
+      <c r="L3" s="9">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="N3" s="8"/>
+      <c r="O3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>8</v>
+      </c>
+      <c r="R3">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="3">
-        <v>4</v>
-      </c>
-      <c r="I2">
-        <v>4</v>
-      </c>
-      <c r="J2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="S3" s="2">
+        <v>44743</v>
+      </c>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" t="s">
         <v>12</v>
       </c>
-      <c r="L2">
-        <v>8</v>
-      </c>
-      <c r="M2" s="4">
-        <v>44621</v>
-      </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3">
-        <v>4</v>
-      </c>
-      <c r="M3" s="4">
-        <v>44197</v>
-      </c>
-      <c r="N3" s="4">
-        <v>44986</v>
-      </c>
-      <c r="O3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="G4" s="1"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB4C966-0530-4C46-8100-E97CAA52FF77}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="3"/>
+    <col min="4" max="4" width="7" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="3">
+        <v>970636747</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="3">
+        <v>994023230</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="3">
+        <v>952202691</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="3">
+        <v>945721147</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="3">
+        <v>922686434</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="3">
+        <v>992644042</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="3">
+        <v>955415428</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="3">
+        <v>966380411</v>
+      </c>
+      <c r="D9" s="3">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>